--- a/data/05_P_Q_Geo_uzupelnienie.xlsx
+++ b/data/05_P_Q_Geo_uzupelnienie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="P_list" sheetId="1" state="visible" r:id="rId2"/>
@@ -1593,7 +1593,7 @@
     <t xml:space="preserve">http://purl.org/ontohgis#settlement_unit_19</t>
   </si>
   <si>
-    <t xml:space="preserve">legal bases</t>
+    <t xml:space="preserve">legal basis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.eionet.europa.eu/gemet/en/concept/4739</t>
@@ -2427,7 +2427,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.87"/>
@@ -6235,7 +6235,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.63"/>
@@ -7044,7 +7044,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.88"/>
@@ -10812,13 +10812,13 @@
   </sheetPr>
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A717" activeCellId="0" sqref="A717"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.38"/>
@@ -22692,7 +22692,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -23380,11 +23380,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
